--- a/spliced/walkingToRunning/2023-03-24_10-01-42/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-01-42/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.320991039276123</v>
+        <v>-5.570007801055908</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.731703758239746</v>
+        <v>-35.83580017089844</v>
       </c>
       <c r="C2" t="n">
-        <v>11.60772895812988</v>
+        <v>22.41282081604004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.232173919677734</v>
+        <v>-2.182258129119873</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.070121765136719</v>
+        <v>-7.31383228302002</v>
       </c>
       <c r="C3" t="n">
-        <v>10.86189651489258</v>
+        <v>33.1801872253418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.570007801055908</v>
+        <v>-1.57672917842865</v>
       </c>
       <c r="B4" t="n">
-        <v>-35.83580017089844</v>
+        <v>-10.6974925994873</v>
       </c>
       <c r="C4" t="n">
-        <v>22.41282081604004</v>
+        <v>15.88597106933594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.182258129119873</v>
+        <v>9.968832015991213</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.31383228302002</v>
+        <v>-22.49884223937988</v>
       </c>
       <c r="C5" t="n">
-        <v>33.1801872253418</v>
+        <v>30.88003540039062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.57672917842865</v>
+        <v>-6.721622467041016</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.6974925994873</v>
+        <v>-1.676235437393188</v>
       </c>
       <c r="C6" t="n">
-        <v>15.88597106933594</v>
+        <v>-11.5780611038208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.968832015991213</v>
+        <v>-32.24742889404297</v>
       </c>
       <c r="B7" t="n">
-        <v>-22.49884223937988</v>
+        <v>-20.76686477661133</v>
       </c>
       <c r="C7" t="n">
-        <v>30.88003540039062</v>
+        <v>7.779660701751709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.721622467041016</v>
+        <v>-7.299997329711914</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.676235437393188</v>
+        <v>-29.29754447937012</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.5780611038208</v>
+        <v>42.08726501464844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-32.24742889404297</v>
+        <v>-13.7584810256958</v>
       </c>
       <c r="B9" t="n">
-        <v>-20.76686477661133</v>
+        <v>-9.336126327514648</v>
       </c>
       <c r="C9" t="n">
-        <v>7.779660701751709</v>
+        <v>20.6390266418457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.299997329711914</v>
+        <v>24.05830383300781</v>
       </c>
       <c r="B10" t="n">
-        <v>-29.29754447937012</v>
+        <v>-37.75975799560547</v>
       </c>
       <c r="C10" t="n">
-        <v>42.08726501464844</v>
+        <v>69.02017974853516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-13.7584810256958</v>
+        <v>-65.68665313720703</v>
       </c>
       <c r="B11" t="n">
-        <v>-9.336126327514648</v>
+        <v>-20.87689781188965</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6390266418457</v>
+        <v>-14.51115989685059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.05830383300781</v>
+        <v>-3.672505617141724</v>
       </c>
       <c r="B12" t="n">
-        <v>-37.75975799560547</v>
+        <v>-5.974431037902832</v>
       </c>
       <c r="C12" t="n">
-        <v>69.02017974853516</v>
+        <v>3.619078159332275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-65.68665313720703</v>
+        <v>-15.47988033294678</v>
       </c>
       <c r="B13" t="n">
-        <v>-20.87689781188965</v>
+        <v>-32.08433532714844</v>
       </c>
       <c r="C13" t="n">
-        <v>-14.51115989685059</v>
+        <v>16.76184463500977</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.672505617141724</v>
+        <v>9.497495651245115</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.974431037902832</v>
+        <v>-6.459360122680664</v>
       </c>
       <c r="C14" t="n">
-        <v>3.619078159332275</v>
+        <v>12.91139125823975</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-15.47988033294678</v>
+        <v>-4.22635555267334</v>
       </c>
       <c r="B15" t="n">
-        <v>-32.08433532714844</v>
+        <v>-2.0812087059021</v>
       </c>
       <c r="C15" t="n">
-        <v>16.76184463500977</v>
+        <v>10.98652267456055</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.497495651245115</v>
+        <v>12.04420471191406</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.459360122680664</v>
+        <v>-23.34278678894043</v>
       </c>
       <c r="C16" t="n">
-        <v>12.91139125823975</v>
+        <v>30.86811256408692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.22635555267334</v>
+        <v>-40.70948791503906</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.0812087059021</v>
+        <v>10.1422061920166</v>
       </c>
       <c r="C17" t="n">
-        <v>10.98652267456055</v>
+        <v>-4.144575119018555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.04420471191406</v>
+        <v>-17.44337844848633</v>
       </c>
       <c r="B18" t="n">
-        <v>-23.34278678894043</v>
+        <v>-33.51113891601562</v>
       </c>
       <c r="C18" t="n">
-        <v>30.86811256408692</v>
+        <v>-9.501523017883301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-40.70948791503906</v>
+        <v>-12.57210731506348</v>
       </c>
       <c r="B19" t="n">
-        <v>10.1422061920166</v>
+        <v>-66.97329711914062</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.144575119018555</v>
+        <v>49.08029174804688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-17.44337844848633</v>
+        <v>-9.933971405029297</v>
       </c>
       <c r="B20" t="n">
-        <v>-33.51113891601562</v>
+        <v>-2.512709140777588</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.501523017883301</v>
+        <v>6.143205642700195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-12.57210731506348</v>
+        <v>21.00619125366211</v>
       </c>
       <c r="B21" t="n">
-        <v>-66.97329711914062</v>
+        <v>-11.01493453979492</v>
       </c>
       <c r="C21" t="n">
-        <v>49.08029174804688</v>
+        <v>19.27869033813477</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-6.04071855545044</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-12.84956741333008</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.132137298583984</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34.18217468261719</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.69527006149292</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.47593355178833</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-27.50531387329102</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-56.38927841186523</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.15304946899414</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41.86726379394531</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-60.87873458862305</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-19.13644981384277</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-7.41383171081543</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0885686874389648</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.766034126281738</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-51.14746856689453</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-84.02630615234375</v>
+      </c>
+      <c r="C27" t="n">
+        <v>86.47578430175781</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-39.8954963684082</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.818742275238037</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.23029327392578</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.352512359619141</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.199073314666748</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.475702285766602</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-6.012904644012451</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-19.74169921875</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.084371328353882</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10.77586936950684</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-30.89251708984375</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.9653205871582</v>
       </c>
     </row>
   </sheetData>
